--- a/ti/backlog-requisitos.xlsx
+++ b/ti/backlog-requisitos.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28816"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10413"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="497" documentId="11_7F4755BF84DCCE43E268565A8931F45BFA75341E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1641A26B-5130-4A19-8D72-24960769A18B}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bia/Documents/Github/sptech/sptech-projeto-individual/ti/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0CA4ED3-F259-CA45-A529-DAE44F65E1E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -31,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="67">
   <si>
     <t>BACKLOG DE REQUISITOS</t>
   </si>
@@ -196,27 +201,6 @@
   </si>
   <si>
     <t>MÉDIA</t>
-  </si>
-  <si>
-    <t>25,6</t>
-  </si>
-  <si>
-    <t>RF - 12</t>
-  </si>
-  <si>
-    <t>Captcha</t>
-  </si>
-  <si>
-    <t>Implementar um sistema Captcha antes do envio das respostas do quiz, com o objetivo de garantir que apenas usuários reais participem da atividade, assegurando a confiabilidade dos dados coletados e das métricas geradas.</t>
-  </si>
-  <si>
-    <t>RNF - 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Armazenamento seguro das informações no banco de dados </t>
-  </si>
-  <si>
-    <t>Todos os dados dos usuários e suas respostas devem ser armazenados de forma segura.</t>
   </si>
   <si>
     <t>RNF - 02</t>
@@ -259,7 +243,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -285,12 +269,6 @@
       <color theme="0"/>
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Aptos Narrow"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="5">
@@ -346,7 +324,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -354,9 +332,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -374,9 +349,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -396,6 +368,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -739,115 +714,115 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C5:N24"/>
+  <dimension ref="C5:N22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="111" workbookViewId="0">
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="34.85546875" customWidth="1"/>
+    <col min="4" max="4" width="34.83203125" customWidth="1"/>
     <col min="5" max="5" width="55" customWidth="1"/>
-    <col min="6" max="6" width="18.42578125" customWidth="1"/>
-    <col min="7" max="7" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" customWidth="1"/>
+    <col min="6" max="6" width="18.5" customWidth="1"/>
+    <col min="7" max="7" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.5" customWidth="1"/>
+    <col min="14" max="14" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="3:14">
-      <c r="C5" s="3" t="s">
+    <row r="5" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C5" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-    </row>
-    <row r="6" spans="3:14">
-      <c r="C6" s="11" t="s">
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+    </row>
+    <row r="6" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C6" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="G6" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="H6" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="11" t="s">
+      <c r="I6" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="J6" s="11" t="s">
+      <c r="J6" s="9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="3:14" ht="29.25">
-      <c r="C7" s="4" t="s">
+    <row r="7" spans="3:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="C7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="3">
         <v>8</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7" s="3">
         <v>1</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="J7" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="3:14" ht="29.25">
-      <c r="C8" s="4" t="s">
+    <row r="8" spans="3:14" ht="32" x14ac:dyDescent="0.2">
+      <c r="C8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="3">
         <v>5</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8" s="3">
         <v>1</v>
       </c>
-      <c r="J8" s="7" t="s">
+      <c r="J8" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="3:14" ht="29.25">
-      <c r="C9" s="4" t="s">
+    <row r="9" spans="3:14" ht="32" x14ac:dyDescent="0.2">
+      <c r="C9" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D9" s="2" t="s">
@@ -856,24 +831,24 @@
       <c r="E9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="G9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="3">
         <v>5</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I9" s="3">
         <v>1</v>
       </c>
-      <c r="J9" s="4" t="s">
+      <c r="J9" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="3:14" ht="43.5">
-      <c r="C10" s="4" t="s">
+    <row r="10" spans="3:14" ht="32" x14ac:dyDescent="0.2">
+      <c r="C10" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D10" s="2" t="s">
@@ -882,152 +857,152 @@
       <c r="E10" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="G10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="3">
         <v>5</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I10" s="3">
         <v>2</v>
       </c>
-      <c r="J10" s="4" t="s">
+      <c r="J10" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="3:14" ht="42.75" customHeight="1">
-      <c r="C11" s="4" t="s">
+    <row r="11" spans="3:14" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C11" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="G11" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="3">
         <v>5</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I11" s="3">
         <v>2</v>
       </c>
-      <c r="J11" s="4" t="s">
+      <c r="J11" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="M11" s="16" t="s">
+      <c r="M11" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="N11" s="16">
+      <c r="N11" s="14">
         <v>128</v>
       </c>
     </row>
-    <row r="12" spans="3:14" ht="45" customHeight="1">
-      <c r="C12" s="4" t="s">
+    <row r="12" spans="3:14" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C12" s="3" t="s">
         <v>31</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="G12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12" s="3">
         <v>8</v>
       </c>
-      <c r="I12" s="4">
+      <c r="I12" s="3">
         <v>2</v>
       </c>
-      <c r="J12" s="4" t="s">
+      <c r="J12" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="M12" s="4" t="s">
+      <c r="M12" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="N12" s="4">
+      <c r="N12" s="3">
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="3:14" ht="43.5" customHeight="1">
-      <c r="C13" s="4" t="s">
+    <row r="13" spans="3:14" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C13" s="3" t="s">
         <v>36</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F13" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="G13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="3">
         <v>8</v>
       </c>
-      <c r="I13" s="4">
+      <c r="I13" s="3">
         <v>2</v>
       </c>
-      <c r="J13" s="4" t="s">
+      <c r="J13" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="M13" s="4" t="s">
+      <c r="M13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="N13" s="4">
+      <c r="N13" s="3">
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="3:14" ht="46.5" customHeight="1">
-      <c r="C14" s="4" t="s">
+    <row r="14" spans="3:14" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C14" s="3" t="s">
         <v>39</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F14" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G14" s="4" t="s">
+      <c r="G14" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H14" s="3">
         <v>5</v>
       </c>
-      <c r="I14" s="4">
+      <c r="I14" s="3">
         <v>1</v>
       </c>
-      <c r="J14" s="4" t="s">
+      <c r="J14" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="M14" s="4" t="s">
+      <c r="M14" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="N14" s="4">
+      <c r="N14" s="3">
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="3:14" ht="43.5">
-      <c r="C15" s="4" t="s">
+    <row r="15" spans="3:14" ht="48" x14ac:dyDescent="0.2">
+      <c r="C15" s="3" t="s">
         <v>42</v>
       </c>
       <c r="D15" s="2" t="s">
@@ -1036,62 +1011,62 @@
       <c r="E15" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="F15" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G15" s="4" t="s">
+      <c r="G15" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H15" s="3">
         <v>5</v>
       </c>
-      <c r="I15" s="4">
+      <c r="I15" s="3">
         <v>3</v>
       </c>
-      <c r="J15" s="4" t="s">
+      <c r="J15" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="M15" s="4" t="s">
+      <c r="M15" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="N15" s="4">
+      <c r="N15" s="3">
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="3:14" ht="44.25" customHeight="1">
-      <c r="C16" s="4" t="s">
+    <row r="16" spans="3:14" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C16" s="3" t="s">
         <v>45</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F16" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="G16" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="H16" s="4">
+      <c r="H16" s="3">
         <v>13</v>
       </c>
-      <c r="I16" s="4">
+      <c r="I16" s="3">
         <v>1</v>
       </c>
-      <c r="J16" s="4" t="s">
+      <c r="J16" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="M16" s="4" t="s">
+      <c r="M16" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="N16" s="4">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="3:14" ht="43.5" customHeight="1">
-      <c r="C17" s="4" t="s">
+      <c r="N16" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="3:14" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C17" s="3" t="s">
         <v>50</v>
       </c>
       <c r="D17" s="2" t="s">
@@ -1100,191 +1075,139 @@
       <c r="E17" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="F17" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="G17" s="4" t="s">
+      <c r="G17" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H17" s="3">
         <v>13</v>
       </c>
-      <c r="H17" s="4">
+      <c r="I17" s="3">
+        <v>3</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="M17" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="N17" s="15">
+        <v>23.4</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C18" s="10"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="10"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C19" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H19" s="3">
+        <v>13</v>
+      </c>
+      <c r="I19" s="3">
+        <v>1</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="3:14" ht="32" x14ac:dyDescent="0.2">
+      <c r="C20" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H20" s="3">
         <v>8</v>
       </c>
-      <c r="I17" s="4">
-        <v>3</v>
-      </c>
-      <c r="J17" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="M17" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="N17" s="17" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="18" spans="3:14" ht="57.75">
-      <c r="C18" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="G18" s="4" t="s">
+      <c r="I20" s="3">
+        <v>1</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C21" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H18" s="4">
+      <c r="H21" s="3">
         <v>8</v>
       </c>
-      <c r="I18" s="4">
-        <v>3</v>
-      </c>
-      <c r="J18" s="10" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="19" spans="3:14">
-      <c r="C19" s="12"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="12"/>
-    </row>
-    <row r="20" spans="3:14" ht="29.25">
-      <c r="C20" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G20" s="4" t="s">
+      <c r="I21" s="3">
+        <v>1</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" ht="32" x14ac:dyDescent="0.2">
+      <c r="C22" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H20" s="4">
+      <c r="H22" s="3">
         <v>8</v>
       </c>
-      <c r="I20" s="4">
-        <v>3</v>
-      </c>
-      <c r="J20" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="21" spans="3:14">
-      <c r="C21" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="H21" s="4">
-        <v>13</v>
-      </c>
-      <c r="I21" s="4">
+      <c r="I22" s="3">
         <v>1</v>
       </c>
-      <c r="J21" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="3:14" ht="29.25">
-      <c r="C22" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H22" s="4">
-        <v>8</v>
-      </c>
-      <c r="I22" s="4">
-        <v>1</v>
-      </c>
-      <c r="J22" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="3:14">
-      <c r="C23" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H23" s="4">
-        <v>8</v>
-      </c>
-      <c r="I23" s="4">
-        <v>1</v>
-      </c>
-      <c r="J23" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="3:14" ht="29.25">
-      <c r="C24" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H24" s="4">
-        <v>8</v>
-      </c>
-      <c r="I24" s="4">
-        <v>1</v>
-      </c>
-      <c r="J24" s="4" t="s">
+      <c r="J22" s="3" t="s">
         <v>14</v>
       </c>
     </row>
